--- a/R/Excel/kids_labels_tokeep.xlsx
+++ b/R/Excel/kids_labels_tokeep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22720" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="7600" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kids_labels_tokeep.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="690">
   <si>
     <t>var</t>
   </si>
@@ -2077,6 +2077,18 @@
   </si>
   <si>
     <t>note: moved from women's module</t>
+  </si>
+  <si>
+    <t>v008</t>
+  </si>
+  <si>
+    <t>date of interview (cmc)</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>interview_date_cmc</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2468,7 @@
   <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2465,7 +2477,7 @@
     <col min="3" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,8 +2493,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>626</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2516,7 +2531,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2533,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2567,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -2584,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>412</v>
       </c>
@@ -2601,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>414</v>
       </c>
@@ -2618,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>416</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -2652,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>420</v>
       </c>
@@ -2669,7 +2704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>424</v>
       </c>
@@ -2686,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>426</v>
       </c>
@@ -2703,7 +2738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>430</v>
       </c>

--- a/R/Excel/kids_labels_tokeep.xlsx
+++ b/R/Excel/kids_labels_tokeep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="19380" yWindow="3520" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kids_labels_tokeep.csv" sheetId="1" r:id="rId1"/>
@@ -2468,7 +2468,7 @@
   <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/R/Excel/kids_labels_tokeep.xlsx
+++ b/R/Excel/kids_labels_tokeep.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="3520" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="8260" yWindow="860" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kids_labels_tokeep.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="705">
   <si>
     <t>var</t>
   </si>
@@ -1926,9 +1926,6 @@
     <t>height_age_percentile</t>
   </si>
   <si>
-    <t>height_age_std</t>
-  </si>
-  <si>
     <t>weight_age_percentile</t>
   </si>
   <si>
@@ -2089,13 +2086,61 @@
   </si>
   <si>
     <t>interview_date_cmc</t>
+  </si>
+  <si>
+    <t>height_age_zscore</t>
+  </si>
+  <si>
+    <t>birth_interval_preceding</t>
+  </si>
+  <si>
+    <t>v107</t>
+  </si>
+  <si>
+    <t>highest year of education</t>
+  </si>
+  <si>
+    <t>v106</t>
+  </si>
+  <si>
+    <t>highest educational level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-no education     1- primary   2- secondary      3- higher </t>
+  </si>
+  <si>
+    <t>in years</t>
+  </si>
+  <si>
+    <t>mother_highest_education_level</t>
+  </si>
+  <si>
+    <t>mother_highest_education_year</t>
+  </si>
+  <si>
+    <t>v002</t>
+  </si>
+  <si>
+    <t>household number</t>
+  </si>
+  <si>
+    <t>hh_num</t>
+  </si>
+  <si>
+    <t>v001</t>
+  </si>
+  <si>
+    <t>cluster number</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2106,6 +2151,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2128,14 +2189,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2465,16 +2534,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2494,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2533,36 +2603,33 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="B4" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="E4" t="s">
-        <v>644</v>
-      </c>
-      <c r="F4" t="s">
-        <v>685</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>699</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>701</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -2570,33 +2637,36 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>685</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>686</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>629</v>
+        <v>688</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>643</v>
+      </c>
+      <c r="F6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -2604,16 +2674,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>629</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2621,16 +2691,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2638,16 +2708,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -2655,16 +2725,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -2672,16 +2742,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -2689,16 +2759,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2706,16 +2776,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -2723,16 +2793,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>689</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -2740,462 +2810,496 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>638</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>693</v>
+      </c>
+      <c r="B20" t="s">
+        <v>694</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>697</v>
+      </c>
+      <c r="E20" t="s">
         <v>643</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" t="s">
+        <v>684</v>
+      </c>
+      <c r="H20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>654</v>
+        <v>698</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>684</v>
+      </c>
+      <c r="H21" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="G32" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>690</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>49</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3204,12 +3308,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3218,12 +3322,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3232,12 +3336,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3246,12 +3350,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3260,12 +3364,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3274,12 +3378,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3288,12 +3392,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3302,12 +3406,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3316,12 +3420,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -3329,10 +3436,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -3340,10 +3450,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -3351,10 +3464,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -3362,10 +3478,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -3373,10 +3492,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -3384,10 +3506,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -3395,10 +3520,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -3406,10 +3531,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -3417,10 +3542,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -3428,10 +3553,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -3439,10 +3564,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -3450,10 +3575,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -3461,10 +3586,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -3472,10 +3597,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -3483,10 +3608,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -3494,10 +3619,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -3505,10 +3630,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -3516,10 +3641,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -3527,10 +3652,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -3538,10 +3663,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -3549,10 +3674,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -3560,10 +3685,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -3571,10 +3696,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -3582,10 +3707,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -3593,10 +3718,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -3604,10 +3729,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3615,10 +3740,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -3626,10 +3751,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3637,10 +3762,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -3648,10 +3773,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3659,10 +3784,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -3670,10 +3795,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -3681,10 +3806,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -3692,10 +3817,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -3703,10 +3828,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -3714,10 +3839,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -3725,10 +3850,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -3736,10 +3861,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -3747,10 +3872,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -3758,10 +3883,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
@@ -3769,10 +3894,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -3780,10 +3905,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
@@ -3791,10 +3916,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -3802,10 +3927,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -3813,10 +3938,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -3824,10 +3949,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -3835,10 +3960,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -3846,10 +3971,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -3857,10 +3982,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -3868,10 +3993,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -3879,10 +4004,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -3890,10 +4015,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -3901,10 +4026,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -3912,10 +4037,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -3923,10 +4048,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -3934,10 +4059,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
@@ -3945,10 +4070,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -3956,10 +4081,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -3967,10 +4092,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -3978,10 +4103,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
@@ -3989,10 +4114,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -4000,10 +4125,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -4011,10 +4136,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -4022,10 +4147,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
@@ -4033,10 +4158,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -4044,10 +4169,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
@@ -4055,10 +4180,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -4066,10 +4191,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
@@ -4077,10 +4202,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
@@ -4088,10 +4213,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -4099,10 +4224,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
@@ -4110,10 +4235,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
@@ -4121,10 +4246,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -4132,10 +4257,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -4143,10 +4268,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -4154,10 +4279,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -4165,10 +4290,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -4176,10 +4301,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
@@ -4187,10 +4312,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -4198,10 +4323,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
@@ -4209,10 +4334,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -4220,10 +4345,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -4231,10 +4356,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -4242,10 +4367,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -4253,10 +4378,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -4264,10 +4389,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
@@ -4275,10 +4400,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -4286,10 +4411,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -4297,10 +4422,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -4308,10 +4433,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -4319,10 +4444,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -4330,10 +4455,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B140" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -4341,10 +4466,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -4352,10 +4477,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B142" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
@@ -4363,10 +4488,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -4374,10 +4499,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
@@ -4385,10 +4510,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B145" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
@@ -4396,10 +4521,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
@@ -4407,10 +4532,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -4418,10 +4543,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -4429,10 +4554,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -4440,10 +4565,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
@@ -4451,10 +4576,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -4462,10 +4587,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
@@ -4473,10 +4598,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E153" t="s">
         <v>5</v>
@@ -4484,10 +4609,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -4495,10 +4620,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
         <v>5</v>
@@ -4506,10 +4631,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B156" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -4517,10 +4642,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E157" t="s">
         <v>5</v>
@@ -4528,10 +4653,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -4539,10 +4664,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
@@ -4550,10 +4675,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -4561,10 +4686,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B161" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -4572,10 +4697,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -4583,10 +4708,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
@@ -4594,10 +4719,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -4605,10 +4730,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -4616,10 +4741,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -4627,10 +4752,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -4638,10 +4763,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -4649,10 +4774,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E169" t="s">
         <v>5</v>
@@ -4660,10 +4785,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -4671,10 +4796,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B171" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
@@ -4682,10 +4807,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -4693,10 +4818,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B173" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -4704,10 +4829,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B174" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -4715,10 +4840,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B175" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -4726,10 +4851,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -4737,10 +4862,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B177" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -4748,10 +4873,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B178" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -4759,10 +4884,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B179" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -4770,10 +4895,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -4781,10 +4906,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B181" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -4792,10 +4917,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -4803,10 +4928,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B183" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
@@ -4814,10 +4939,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B184" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -4825,10 +4950,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B185" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -4836,10 +4961,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B186" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -4847,10 +4972,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B187" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
@@ -4858,10 +4983,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B188" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -4869,10 +4994,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B189" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
@@ -4880,10 +5005,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B190" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -4891,10 +5016,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B191" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
@@ -4902,10 +5027,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B192" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -4913,10 +5038,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B193" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
@@ -4924,10 +5049,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B194" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -4935,10 +5060,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
@@ -4946,10 +5071,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -4957,10 +5082,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B197" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E197" t="s">
         <v>5</v>
@@ -4968,10 +5093,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B198" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -4979,10 +5104,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B199" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
@@ -4990,10 +5115,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -5001,10 +5126,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B201" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
@@ -5012,10 +5137,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -5023,10 +5148,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E203" t="s">
         <v>5</v>
@@ -5034,10 +5159,10 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B204" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -5045,10 +5170,10 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B205" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
@@ -5056,10 +5181,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B206" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -5067,10 +5192,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B207" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E207" t="s">
         <v>5</v>
@@ -5078,10 +5203,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B208" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -5089,10 +5214,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B209" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E209" t="s">
         <v>5</v>
@@ -5100,10 +5225,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B210" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -5111,10 +5236,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B211" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
@@ -5122,10 +5247,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B212" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -5133,10 +5258,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B213" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E213" t="s">
         <v>5</v>
@@ -5144,10 +5269,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B214" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -5155,10 +5280,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B215" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E215" t="s">
         <v>5</v>
@@ -5166,10 +5291,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B216" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -5177,10 +5302,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B217" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E217" t="s">
         <v>5</v>
@@ -5188,10 +5313,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B218" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -5199,10 +5324,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B219" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E219" t="s">
         <v>5</v>
@@ -5210,10 +5335,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B220" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -5221,10 +5346,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B221" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E221" t="s">
         <v>5</v>
@@ -5232,10 +5357,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B222" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -5243,10 +5368,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B223" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
@@ -5254,10 +5379,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B224" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -5265,10 +5390,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B225" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E225" t="s">
         <v>5</v>
@@ -5276,10 +5401,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B226" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E226" t="s">
         <v>5</v>
@@ -5287,10 +5412,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B227" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E227" t="s">
         <v>5</v>
@@ -5298,10 +5423,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B228" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -5309,10 +5434,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B229" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
@@ -5320,10 +5445,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B230" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -5331,10 +5456,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B231" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E231" t="s">
         <v>5</v>
@@ -5342,10 +5467,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B232" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -5353,10 +5478,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="E233" t="s">
         <v>5</v>
@@ -5364,10 +5489,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B234" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -5375,10 +5500,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B235" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="E235" t="s">
         <v>5</v>
@@ -5386,10 +5511,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B236" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -5397,10 +5522,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B237" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E237" t="s">
         <v>5</v>
@@ -5408,10 +5533,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B238" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -5419,10 +5544,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B239" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E239" t="s">
         <v>5</v>
@@ -5430,10 +5555,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B240" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -5441,10 +5566,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B241" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E241" t="s">
         <v>5</v>
@@ -5452,10 +5577,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B242" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -5463,10 +5588,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B243" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E243" t="s">
         <v>5</v>
@@ -5474,10 +5599,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B244" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -5485,10 +5610,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B245" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E245" t="s">
         <v>5</v>
@@ -5496,10 +5621,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B246" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -5507,10 +5632,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B247" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E247" t="s">
         <v>5</v>
@@ -5518,10 +5643,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B248" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -5529,10 +5654,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B249" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E249" t="s">
         <v>5</v>
@@ -5540,10 +5665,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B250" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -5551,10 +5676,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>461</v>
       </c>
       <c r="E251" t="s">
         <v>5</v>
@@ -5562,10 +5687,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B252" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>
@@ -5573,10 +5698,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B253" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E253" t="s">
         <v>5</v>
@@ -5584,10 +5709,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B254" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E254" t="s">
         <v>5</v>
@@ -5595,10 +5720,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B255" t="s">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="E255" t="s">
         <v>5</v>
@@ -5606,10 +5731,10 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B256" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E256" t="s">
         <v>5</v>
@@ -5617,10 +5742,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B257" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E257" t="s">
         <v>5</v>
@@ -5628,10 +5753,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B258" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E258" t="s">
         <v>5</v>
@@ -5639,10 +5764,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B259" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E259" t="s">
         <v>5</v>
@@ -5650,10 +5775,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B260" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E260" t="s">
         <v>5</v>
@@ -5661,10 +5786,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B261" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E261" t="s">
         <v>5</v>
@@ -5672,10 +5797,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B262" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E262" t="s">
         <v>5</v>
@@ -5683,10 +5808,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B263" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E263" t="s">
         <v>5</v>
@@ -5694,10 +5819,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B264" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E264" t="s">
         <v>5</v>
@@ -5705,10 +5830,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B265" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E265" t="s">
         <v>5</v>
@@ -5716,10 +5841,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B266" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E266" t="s">
         <v>5</v>
@@ -5727,10 +5852,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B267" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E267" t="s">
         <v>5</v>
@@ -5738,10 +5863,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B268" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E268" t="s">
         <v>5</v>
@@ -5749,10 +5874,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B269" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E269" t="s">
         <v>5</v>
@@ -5760,10 +5885,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="E270" t="s">
         <v>5</v>
@@ -5771,10 +5896,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B271" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E271" t="s">
         <v>5</v>
@@ -5782,10 +5907,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B272" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E272" t="s">
         <v>5</v>
@@ -5793,10 +5918,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B273" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E273" t="s">
         <v>5</v>
@@ -5804,10 +5929,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B274" t="s">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="E274" t="s">
         <v>5</v>
@@ -5815,10 +5940,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B275" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E275" t="s">
         <v>5</v>
@@ -5826,10 +5951,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B276" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E276" t="s">
         <v>5</v>
@@ -5837,10 +5962,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B277" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E277" t="s">
         <v>5</v>
@@ -5848,10 +5973,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B278" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E278" t="s">
         <v>5</v>
@@ -5859,10 +5984,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B279" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E279" t="s">
         <v>5</v>
@@ -5870,10 +5995,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B280" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E280" t="s">
         <v>5</v>
@@ -5881,10 +6006,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B281" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E281" t="s">
         <v>5</v>
@@ -5892,10 +6017,10 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B282" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E282" t="s">
         <v>5</v>
@@ -5903,10 +6028,10 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B283" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E283" t="s">
         <v>5</v>
@@ -5914,10 +6039,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B284" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E284" t="s">
         <v>5</v>
@@ -5925,10 +6050,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B285" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E285" t="s">
         <v>5</v>
@@ -5936,10 +6061,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B286" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E286" t="s">
         <v>5</v>
@@ -5947,10 +6072,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B287" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E287" t="s">
         <v>5</v>
@@ -5958,10 +6083,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B288" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E288" t="s">
         <v>5</v>
@@ -5969,10 +6094,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B289" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E289" t="s">
         <v>5</v>
@@ -5980,10 +6105,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B290" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E290" t="s">
         <v>5</v>
@@ -5991,10 +6116,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B291" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E291" t="s">
         <v>5</v>
@@ -6002,10 +6127,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B292" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E292" t="s">
         <v>5</v>
@@ -6013,10 +6138,10 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B293" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E293" t="s">
         <v>5</v>
@@ -6024,10 +6149,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B294" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E294" t="s">
         <v>5</v>
@@ -6035,10 +6160,10 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B295" t="s">
-        <v>4</v>
+        <v>547</v>
       </c>
       <c r="E295" t="s">
         <v>5</v>
@@ -6046,10 +6171,10 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B296" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E296" t="s">
         <v>5</v>
@@ -6057,10 +6182,10 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B297" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E297" t="s">
         <v>5</v>
@@ -6068,10 +6193,10 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B298" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E298" t="s">
         <v>5</v>
@@ -6079,10 +6204,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B299" t="s">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="E299" t="s">
         <v>5</v>
@@ -6090,10 +6215,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B300" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E300" t="s">
         <v>5</v>
@@ -6101,10 +6226,10 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B301" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E301" t="s">
         <v>5</v>
@@ -6112,10 +6237,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B302" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E302" t="s">
         <v>5</v>
@@ -6123,10 +6248,10 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B303" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E303" t="s">
         <v>5</v>
@@ -6134,10 +6259,10 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B304" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E304" t="s">
         <v>5</v>
@@ -6145,10 +6270,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B305" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E305" t="s">
         <v>5</v>
@@ -6156,10 +6281,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B306" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E306" t="s">
         <v>5</v>
@@ -6167,10 +6292,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B307" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E307" t="s">
         <v>5</v>
@@ -6178,10 +6303,10 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B308" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E308" t="s">
         <v>5</v>
@@ -6189,10 +6314,10 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B309" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E309" t="s">
         <v>5</v>
@@ -6200,10 +6325,10 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B310" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E310" t="s">
         <v>5</v>
@@ -6211,10 +6336,10 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B311" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E311" t="s">
         <v>5</v>
@@ -6222,10 +6347,10 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B312" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E312" t="s">
         <v>5</v>
@@ -6233,10 +6358,10 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B313" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E313" t="s">
         <v>5</v>
@@ -6244,10 +6369,10 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B314" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E314" t="s">
         <v>5</v>
@@ -6255,10 +6380,10 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B315" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E315" t="s">
         <v>5</v>
@@ -6266,10 +6391,10 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B316" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="E316" t="s">
         <v>5</v>
@@ -6277,10 +6402,10 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B317" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E317" t="s">
         <v>5</v>
@@ -6288,10 +6413,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B318" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E318" t="s">
         <v>5</v>
@@ -6299,10 +6424,10 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B319" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E319" t="s">
         <v>5</v>
@@ -6310,10 +6435,10 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B320" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E320" t="s">
         <v>5</v>
@@ -6321,10 +6446,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B321" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E321" t="s">
         <v>5</v>
@@ -6332,10 +6457,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B322" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E322" t="s">
         <v>5</v>
@@ -6343,10 +6468,10 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B323" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E323" t="s">
         <v>5</v>
@@ -6354,10 +6479,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B324" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E324" t="s">
         <v>5</v>
@@ -6365,10 +6490,10 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B325" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E325" t="s">
         <v>5</v>
@@ -6376,10 +6501,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B326" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E326" t="s">
         <v>5</v>
@@ -6387,10 +6512,10 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B327" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E327" t="s">
         <v>5</v>
@@ -6398,10 +6523,10 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B328" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E328" t="s">
         <v>5</v>
@@ -6409,10 +6534,10 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B329" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E329" t="s">
         <v>5</v>
@@ -6420,20 +6545,65 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
+        <v>615</v>
+      </c>
+      <c r="B330" t="s">
+        <v>616</v>
+      </c>
+      <c r="E330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>617</v>
+      </c>
+      <c r="B331" t="s">
+        <v>618</v>
+      </c>
+      <c r="E331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>619</v>
+      </c>
+      <c r="B332" t="s">
+        <v>620</v>
+      </c>
+      <c r="E332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>621</v>
+      </c>
+      <c r="B333" t="s">
+        <v>622</v>
+      </c>
+      <c r="E333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
         <v>623</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B334" t="s">
         <v>624</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E334" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E328">
-    <sortCondition descending="1" ref="C2:C328"/>
+  <sortState ref="A2:H333">
+    <sortCondition descending="1" ref="C2:C333"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/R/Excel/kids_labels_tokeep.xlsx
+++ b/R/Excel/kids_labels_tokeep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="860" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12260" yWindow="260" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kids_labels_tokeep.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="709">
   <si>
     <t>var</t>
   </si>
@@ -2073,9 +2073,6 @@
     <t>child_other_food</t>
   </si>
   <si>
-    <t>note: moved from women's module</t>
-  </si>
-  <si>
     <t>v008</t>
   </si>
   <si>
@@ -2133,7 +2130,22 @@
     <t>cluster number</t>
   </si>
   <si>
-    <t>cluster</t>
+    <t>birth_order</t>
+  </si>
+  <si>
+    <t>v190</t>
+  </si>
+  <si>
+    <t>wealth index</t>
+  </si>
+  <si>
+    <t>wealth_index</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>cluster_num</t>
   </si>
 </sst>
 </file>
@@ -2534,17 +2546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2564,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2603,16 +2615,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B4" t="s">
         <v>702</v>
-      </c>
-      <c r="B4" t="s">
-        <v>703</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -2620,16 +2632,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" t="s">
         <v>699</v>
-      </c>
-      <c r="B5" t="s">
-        <v>700</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -2637,53 +2649,50 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" t="s">
         <v>685</v>
-      </c>
-      <c r="B6" t="s">
-        <v>686</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E6" t="s">
         <v>643</v>
       </c>
-      <c r="F6" t="s">
-        <v>684</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>704</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>705</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>639</v>
+        <v>706</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2691,16 +2700,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2708,16 +2717,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>630</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -2725,16 +2734,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>631</v>
+        <v>411</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -2742,16 +2751,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -2759,16 +2768,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2776,16 +2785,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -2793,16 +2802,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>634</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -2810,154 +2819,142 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>693</v>
+        <v>432</v>
       </c>
       <c r="B20" t="s">
-        <v>694</v>
+        <v>433</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>692</v>
+      </c>
+      <c r="B21" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>696</v>
+      </c>
+      <c r="E21" t="s">
         <v>643</v>
       </c>
-      <c r="G20" t="s">
-        <v>684</v>
-      </c>
-      <c r="H20" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="H21" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="1"/>
+      <c r="G22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>643</v>
@@ -2965,22 +2962,19 @@
       <c r="F23" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>643</v>
@@ -2988,22 +2982,19 @@
       <c r="F24" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>643</v>
@@ -3011,22 +3002,19 @@
       <c r="F25" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>643</v>
@@ -3034,22 +3022,19 @@
       <c r="F26" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>643</v>
@@ -3057,22 +3042,19 @@
       <c r="F27" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>643</v>
@@ -3080,22 +3062,19 @@
       <c r="F28" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>643</v>
@@ -3103,22 +3082,19 @@
       <c r="F29" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>643</v>
@@ -3126,22 +3102,19 @@
       <c r="F30" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>643</v>
@@ -3149,22 +3122,19 @@
       <c r="F31" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>643</v>
@@ -3172,22 +3142,19 @@
       <c r="F32" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>643</v>
@@ -3195,22 +3162,19 @@
       <c r="F33" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>643</v>
@@ -3218,102 +3182,102 @@
       <c r="F34" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
+      <c r="F35" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>33</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>690</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>689</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>703</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>49</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3322,12 +3286,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3336,12 +3300,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3350,12 +3314,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3364,12 +3328,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3378,12 +3342,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3392,12 +3356,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3406,12 +3370,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3420,12 +3384,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3436,10 +3400,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3450,10 +3414,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3464,10 +3428,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3478,10 +3442,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3492,10 +3456,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3506,10 +3470,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3520,10 +3484,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -3531,10 +3498,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -3542,10 +3509,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -3553,10 +3520,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -3564,10 +3531,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -3575,10 +3542,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -3586,10 +3553,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -3597,10 +3564,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -3608,10 +3575,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -3619,10 +3586,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -3630,10 +3597,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -3641,10 +3608,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -3652,10 +3619,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -3663,10 +3630,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -3674,10 +3641,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -3685,10 +3652,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -3696,10 +3663,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -3707,10 +3674,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -3718,10 +3685,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -3729,10 +3696,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3740,10 +3707,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -3751,10 +3718,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3762,10 +3729,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -3773,10 +3740,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3784,10 +3751,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -3795,10 +3762,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -3806,10 +3773,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -3817,10 +3784,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -3828,10 +3795,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -3839,10 +3806,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -3850,10 +3817,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -3861,10 +3828,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -3872,10 +3839,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -3883,10 +3850,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
@@ -3894,10 +3861,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -3905,10 +3872,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
@@ -3916,10 +3883,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -3927,10 +3894,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -3938,10 +3905,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -3949,10 +3916,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -3960,10 +3927,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -3971,10 +3938,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -3982,10 +3949,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -3993,10 +3960,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -4004,10 +3971,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -4015,10 +3982,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -4026,10 +3993,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -4037,10 +4004,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -4048,10 +4015,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -4059,10 +4026,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
@@ -4070,10 +4037,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -4081,10 +4048,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -4092,10 +4059,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -4103,10 +4070,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
@@ -4114,10 +4081,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -4125,10 +4092,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -4136,10 +4103,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -4147,10 +4114,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
@@ -4158,10 +4125,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -4169,10 +4136,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
@@ -4180,10 +4147,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -4191,10 +4158,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
@@ -4202,10 +4169,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
@@ -4213,10 +4180,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -4224,10 +4191,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
@@ -4235,10 +4202,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
@@ -4246,10 +4213,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -4257,10 +4224,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -4268,10 +4235,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -4279,10 +4246,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -4290,10 +4257,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -4301,10 +4268,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
@@ -4312,10 +4279,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -4323,10 +4290,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
@@ -4334,10 +4301,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -4345,10 +4312,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -4356,10 +4323,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -4367,10 +4334,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -4378,10 +4345,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -4389,10 +4356,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B134" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
@@ -4400,10 +4367,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -4411,10 +4378,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -4422,10 +4389,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -4433,10 +4400,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -4444,10 +4411,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -4455,10 +4422,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -4466,10 +4433,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -4477,10 +4444,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
@@ -4488,10 +4455,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -4499,10 +4466,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B144" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
@@ -4510,10 +4477,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
@@ -4521,10 +4488,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
@@ -4532,10 +4499,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -4543,10 +4510,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -4554,10 +4521,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -4565,10 +4532,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
@@ -4576,10 +4543,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -4587,10 +4554,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
@@ -4598,10 +4565,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E153" t="s">
         <v>5</v>
@@ -4609,10 +4576,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B154" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -4620,10 +4587,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E155" t="s">
         <v>5</v>
@@ -4631,10 +4598,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B156" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -4642,10 +4609,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E157" t="s">
         <v>5</v>
@@ -4653,10 +4620,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -4664,10 +4631,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
@@ -4675,10 +4642,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B160" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -4686,10 +4653,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B161" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -4697,10 +4664,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B162" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -4708,10 +4675,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
@@ -4719,10 +4686,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B164" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -4730,10 +4697,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B165" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -4741,10 +4708,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -4752,10 +4719,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -4763,10 +4730,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -4774,10 +4741,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E169" t="s">
         <v>5</v>
@@ -4785,10 +4752,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -4796,10 +4763,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B171" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
@@ -4807,10 +4774,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B172" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -4818,10 +4785,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -4829,10 +4796,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -4840,10 +4807,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B175" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -4851,10 +4818,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B176" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -4862,10 +4829,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -4873,10 +4840,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B178" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -4884,10 +4851,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B179" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -4895,10 +4862,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -4906,10 +4873,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -4917,10 +4884,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B182" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -4928,10 +4895,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B183" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
@@ -4939,10 +4906,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B184" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -4950,10 +4917,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B185" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -4961,10 +4928,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -4972,10 +4939,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B187" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
@@ -4983,10 +4950,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -4994,10 +4961,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B189" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
@@ -5005,10 +4972,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B190" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -5016,10 +4983,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B191" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
@@ -5027,10 +4994,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B192" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -5038,10 +5005,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B193" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
@@ -5049,10 +5016,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B194" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -5060,10 +5027,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
@@ -5071,10 +5038,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B196" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -5082,10 +5049,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B197" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E197" t="s">
         <v>5</v>
@@ -5093,10 +5060,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -5104,10 +5071,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B199" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
@@ -5115,10 +5082,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B200" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -5126,10 +5093,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B201" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
@@ -5137,10 +5104,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -5148,10 +5115,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E203" t="s">
         <v>5</v>
@@ -5159,10 +5126,10 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B204" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -5170,10 +5137,10 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B205" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
@@ -5181,10 +5148,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B206" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -5192,10 +5159,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B207" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E207" t="s">
         <v>5</v>
@@ -5203,10 +5170,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -5214,10 +5181,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B209" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E209" t="s">
         <v>5</v>
@@ -5225,10 +5192,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -5236,10 +5203,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B211" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
@@ -5247,10 +5214,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B212" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -5258,10 +5225,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E213" t="s">
         <v>5</v>
@@ -5269,10 +5236,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B214" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -5280,10 +5247,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B215" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E215" t="s">
         <v>5</v>
@@ -5291,10 +5258,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -5302,10 +5269,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B217" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E217" t="s">
         <v>5</v>
@@ -5313,10 +5280,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B218" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -5324,10 +5291,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E219" t="s">
         <v>5</v>
@@ -5335,10 +5302,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B220" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -5346,10 +5313,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E221" t="s">
         <v>5</v>
@@ -5357,10 +5324,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B222" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -5368,10 +5335,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B223" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
@@ -5379,10 +5346,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B224" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -5390,10 +5357,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B225" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E225" t="s">
         <v>5</v>
@@ -5401,10 +5368,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B226" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E226" t="s">
         <v>5</v>
@@ -5412,10 +5379,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B227" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E227" t="s">
         <v>5</v>
@@ -5423,10 +5390,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -5434,10 +5401,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B229" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
@@ -5445,10 +5412,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B230" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -5456,10 +5423,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B231" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E231" t="s">
         <v>5</v>
@@ -5467,10 +5434,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B232" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -5478,10 +5445,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B233" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E233" t="s">
         <v>5</v>
@@ -5489,10 +5456,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B234" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -5500,10 +5467,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E235" t="s">
         <v>5</v>
@@ -5511,10 +5478,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B236" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -5522,10 +5489,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B237" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E237" t="s">
         <v>5</v>
@@ -5533,10 +5500,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B238" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -5544,10 +5511,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B239" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E239" t="s">
         <v>5</v>
@@ -5555,10 +5522,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B240" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -5566,10 +5533,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B241" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E241" t="s">
         <v>5</v>
@@ -5577,10 +5544,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B242" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -5588,10 +5555,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B243" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E243" t="s">
         <v>5</v>
@@ -5599,10 +5566,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B244" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -5610,10 +5577,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B245" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E245" t="s">
         <v>5</v>
@@ -5621,10 +5588,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B246" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -5632,10 +5599,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B247" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E247" t="s">
         <v>5</v>
@@ -5643,10 +5610,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B248" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -5654,10 +5621,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B249" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E249" t="s">
         <v>5</v>
@@ -5665,10 +5632,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B250" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -5676,10 +5643,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B251" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E251" t="s">
         <v>5</v>
@@ -5687,10 +5654,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B252" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>
@@ -5698,10 +5665,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B253" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E253" t="s">
         <v>5</v>
@@ -5709,10 +5676,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B254" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E254" t="s">
         <v>5</v>
@@ -5720,10 +5687,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B255" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="E255" t="s">
         <v>5</v>
@@ -5731,10 +5698,10 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B256" t="s">
-        <v>470</v>
+        <v>4</v>
       </c>
       <c r="E256" t="s">
         <v>5</v>
@@ -5742,10 +5709,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B257" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E257" t="s">
         <v>5</v>
@@ -5753,10 +5720,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B258" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E258" t="s">
         <v>5</v>
@@ -5764,10 +5731,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B259" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E259" t="s">
         <v>5</v>
@@ -5775,10 +5742,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B260" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E260" t="s">
         <v>5</v>
@@ -5786,10 +5753,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B261" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E261" t="s">
         <v>5</v>
@@ -5797,10 +5764,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B262" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E262" t="s">
         <v>5</v>
@@ -5808,10 +5775,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B263" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E263" t="s">
         <v>5</v>
@@ -5819,10 +5786,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B264" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E264" t="s">
         <v>5</v>
@@ -5830,10 +5797,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B265" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E265" t="s">
         <v>5</v>
@@ -5841,10 +5808,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B266" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E266" t="s">
         <v>5</v>
@@ -5852,10 +5819,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B267" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E267" t="s">
         <v>5</v>
@@ -5863,10 +5830,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B268" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E268" t="s">
         <v>5</v>
@@ -5874,10 +5841,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B269" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E269" t="s">
         <v>5</v>
@@ -5885,10 +5852,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B270" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E270" t="s">
         <v>5</v>
@@ -5896,10 +5863,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B271" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E271" t="s">
         <v>5</v>
@@ -5907,10 +5874,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B272" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E272" t="s">
         <v>5</v>
@@ -5918,10 +5885,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B273" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E273" t="s">
         <v>5</v>
@@ -5929,10 +5896,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="E274" t="s">
         <v>5</v>
@@ -5940,10 +5907,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B275" t="s">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="E275" t="s">
         <v>5</v>
@@ -5951,10 +5918,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B276" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E276" t="s">
         <v>5</v>
@@ -5962,10 +5929,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B277" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E277" t="s">
         <v>5</v>
@@ -5973,10 +5940,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B278" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E278" t="s">
         <v>5</v>
@@ -5984,10 +5951,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B279" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E279" t="s">
         <v>5</v>
@@ -5995,10 +5962,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B280" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E280" t="s">
         <v>5</v>
@@ -6006,10 +5973,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B281" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E281" t="s">
         <v>5</v>
@@ -6017,10 +5984,10 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B282" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E282" t="s">
         <v>5</v>
@@ -6028,10 +5995,10 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B283" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E283" t="s">
         <v>5</v>
@@ -6039,10 +6006,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B284" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E284" t="s">
         <v>5</v>
@@ -6050,10 +6017,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B285" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E285" t="s">
         <v>5</v>
@@ -6061,10 +6028,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B286" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E286" t="s">
         <v>5</v>
@@ -6072,10 +6039,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B287" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E287" t="s">
         <v>5</v>
@@ -6083,10 +6050,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B288" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E288" t="s">
         <v>5</v>
@@ -6094,10 +6061,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B289" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E289" t="s">
         <v>5</v>
@@ -6105,10 +6072,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B290" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E290" t="s">
         <v>5</v>
@@ -6116,10 +6083,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B291" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E291" t="s">
         <v>5</v>
@@ -6127,10 +6094,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B292" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E292" t="s">
         <v>5</v>
@@ -6138,10 +6105,10 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B293" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E293" t="s">
         <v>5</v>
@@ -6149,10 +6116,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B294" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E294" t="s">
         <v>5</v>
@@ -6160,10 +6127,10 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B295" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E295" t="s">
         <v>5</v>
@@ -6171,10 +6138,10 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B296" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E296" t="s">
         <v>5</v>
@@ -6182,10 +6149,10 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B297" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E297" t="s">
         <v>5</v>
@@ -6193,10 +6160,10 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B298" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E298" t="s">
         <v>5</v>
@@ -6204,10 +6171,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B299" t="s">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="E299" t="s">
         <v>5</v>
@@ -6215,10 +6182,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B300" t="s">
-        <v>556</v>
+        <v>4</v>
       </c>
       <c r="E300" t="s">
         <v>5</v>
@@ -6226,10 +6193,10 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B301" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E301" t="s">
         <v>5</v>
@@ -6237,10 +6204,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B302" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E302" t="s">
         <v>5</v>
@@ -6248,10 +6215,10 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B303" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E303" t="s">
         <v>5</v>
@@ -6259,10 +6226,10 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B304" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E304" t="s">
         <v>5</v>
@@ -6270,10 +6237,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B305" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E305" t="s">
         <v>5</v>
@@ -6281,10 +6248,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B306" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E306" t="s">
         <v>5</v>
@@ -6292,10 +6259,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B307" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E307" t="s">
         <v>5</v>
@@ -6303,10 +6270,10 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B308" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E308" t="s">
         <v>5</v>
@@ -6314,10 +6281,10 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B309" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E309" t="s">
         <v>5</v>
@@ -6325,10 +6292,10 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B310" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E310" t="s">
         <v>5</v>
@@ -6336,10 +6303,10 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B311" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E311" t="s">
         <v>5</v>
@@ -6347,10 +6314,10 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B312" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E312" t="s">
         <v>5</v>
@@ -6358,10 +6325,10 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B313" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E313" t="s">
         <v>5</v>
@@ -6369,10 +6336,10 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B314" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E314" t="s">
         <v>5</v>
@@ -6380,10 +6347,10 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B315" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E315" t="s">
         <v>5</v>
@@ -6391,10 +6358,10 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B316" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E316" t="s">
         <v>5</v>
@@ -6402,10 +6369,10 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B317" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E317" t="s">
         <v>5</v>
@@ -6413,10 +6380,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B318" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E318" t="s">
         <v>5</v>
@@ -6424,10 +6391,10 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B319" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E319" t="s">
         <v>5</v>
@@ -6435,10 +6402,10 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B320" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E320" t="s">
         <v>5</v>
@@ -6446,10 +6413,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B321" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E321" t="s">
         <v>5</v>
@@ -6457,10 +6424,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B322" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E322" t="s">
         <v>5</v>
@@ -6468,10 +6435,10 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B323" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E323" t="s">
         <v>5</v>
@@ -6479,10 +6446,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B324" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E324" t="s">
         <v>5</v>
@@ -6490,10 +6457,10 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E325" t="s">
         <v>5</v>
@@ -6501,10 +6468,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B326" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E326" t="s">
         <v>5</v>
@@ -6512,10 +6479,10 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B327" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E327" t="s">
         <v>5</v>
@@ -6523,10 +6490,10 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B328" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E328" t="s">
         <v>5</v>
@@ -6534,10 +6501,10 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B329" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E329" t="s">
         <v>5</v>
@@ -6545,10 +6512,10 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B330" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E330" t="s">
         <v>5</v>
@@ -6556,10 +6523,10 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B331" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E331" t="s">
         <v>5</v>
@@ -6567,10 +6534,10 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B332" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E332" t="s">
         <v>5</v>
@@ -6578,10 +6545,10 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B333" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E333" t="s">
         <v>5</v>
@@ -6589,18 +6556,29 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
+        <v>621</v>
+      </c>
+      <c r="B334" t="s">
+        <v>622</v>
+      </c>
+      <c r="E334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
         <v>623</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>624</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E335" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H333">
-    <sortCondition descending="1" ref="C2:C333"/>
+  <sortState ref="A2:H334">
+    <sortCondition descending="1" ref="C2:C334"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
